--- a/Robocorp Test Robots/SAP-Project/input/OBNK-Sheet.xlsx
+++ b/Robocorp Test Robots/SAP-Project/input/OBNK-Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,10 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\w\r\a\p_te\x\t\=\T\r\ue"/>
+    <numFmt numFmtId="165" formatCode="wrap_text=True"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,8 +54,12 @@
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -63,8 +68,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF198754"/>
-        <bgColor rgb="FF198754"/>
+        <fgColor rgb="00DC143C"/>
+        <bgColor rgb="00DC143C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00198754"/>
+        <bgColor rgb="00198754"/>
       </patternFill>
     </fill>
   </fills>
@@ -80,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -106,10 +117,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,7 +515,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -513,7 +536,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>ACUST0007</t>
+          <t>ACUST0001</t>
         </is>
       </c>
     </row>
@@ -556,45 +579,45 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="n">
-        <v>249155</v>
+        <v>24968</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45054</v>
+        <v>45063</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>139544</v>
+        <v>1404</v>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>A/R Invoices - ACUST0007</t>
+          <t>A/R Invoices - ACUST0001</t>
         </is>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="9" t="n"/>
+      <c r="G3" s="13" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>24919574</v>
+        <v>24969</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>45054</v>
+        <v>45063</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>200344</v>
+        <v>2014</v>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Incoming Payments - ACUST0007</t>
+          <t>Incoming Payments - ACUST0001</t>
         </is>
       </c>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="9" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>Reconciliation Success</t>
         </is>
@@ -603,7 +626,7 @@
     <row r="5">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="5" t="n">
-        <v>45054</v>
+        <v>45063</v>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
@@ -611,10 +634,14 @@
         </is>
       </c>
       <c r="E5" s="6" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" s="10" t="n"/>
+      <c r="G5" s="14" t="inlineStr">
+        <is>
+          <t>Value: Invalid query option: key value is not matched with its type</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n"/>
